--- a/downloads/average_d.xlsx
+++ b/downloads/average_d.xlsx
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="163">
   <si>
-    <t>BB/BE</t>
-  </si>
-  <si>
     <t>BB</t>
   </si>
   <si>
@@ -63,15 +60,6 @@
     <t>TH</t>
   </si>
   <si>
-    <t>NI/ HH/HB</t>
-  </si>
-  <si>
-    <t>TH/ ST</t>
-  </si>
-  <si>
-    <t>Mittel</t>
-  </si>
-  <si>
     <t>ka</t>
   </si>
   <si>
@@ -508,6 +496,18 @@
   </si>
   <si>
     <t>M/J</t>
+  </si>
+  <si>
+    <t>BB,BE</t>
+  </si>
+  <si>
+    <t>NI, HH, HB</t>
+  </si>
+  <si>
+    <t>TH/ST</t>
+  </si>
+  <si>
+    <t>Av</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1321,7 @@
   <dimension ref="A1:R142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1332,63 +1332,63 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>-5.54</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>1.43</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>-0.41</v>
@@ -1556,7 +1556,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>3.35</v>
@@ -1598,7 +1598,7 @@
         <v>2.39</v>
       </c>
       <c r="O5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P5">
         <v>2.93</v>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>-2.15</v>
@@ -1624,7 +1624,7 @@
         <v>-3.88</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F6">
         <v>-2.66</v>
@@ -1668,7 +1668,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>-0.96</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>-3.13</v>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>-1.18</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>-2.96</v>
@@ -1892,7 +1892,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>2.14</v>
@@ -1948,7 +1948,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B12">
         <v>-3.97</v>
@@ -2004,7 +2004,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>-2.09</v>
@@ -2057,7 +2057,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B14">
         <v>-8.26</v>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B15">
         <v>-1.48</v>
@@ -2166,7 +2166,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B16">
         <v>-3.32</v>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B17">
         <v>-0.52</v>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B18">
         <v>-3.43</v>
@@ -2334,7 +2334,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B19">
         <v>2.62</v>
@@ -2390,7 +2390,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B20">
         <v>2.29</v>
@@ -2446,7 +2446,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B21">
         <v>0.26</v>
@@ -2502,7 +2502,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B22">
         <v>-4.0199999999999996</v>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B23">
         <v>3.62</v>
@@ -2614,7 +2614,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B24">
         <v>0.43</v>
@@ -2670,7 +2670,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B25">
         <v>-0.89</v>
@@ -2726,7 +2726,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B26">
         <v>-1.21</v>
@@ -2782,7 +2782,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B27">
         <v>1.23</v>
@@ -2838,7 +2838,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B28">
         <v>-0.42</v>
@@ -2853,7 +2853,7 @@
         <v>-1.5</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G28">
         <v>-0.48</v>
@@ -2894,7 +2894,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B29">
         <v>-0.99</v>
@@ -2950,7 +2950,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B30">
         <v>-1.31</v>
@@ -3006,7 +3006,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B31">
         <v>1.88</v>
@@ -3033,7 +3033,7 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="J31" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K31">
         <v>1.62</v>
@@ -3062,7 +3062,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B32">
         <v>0.24</v>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B33">
         <v>-3.38</v>
@@ -3174,7 +3174,7 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B34">
         <v>-0.61</v>
@@ -3230,7 +3230,7 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B35">
         <v>-2.37</v>
@@ -3286,7 +3286,7 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B36">
         <v>0.28000000000000003</v>
@@ -3342,7 +3342,7 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B37">
         <v>3.72</v>
@@ -3398,7 +3398,7 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B38">
         <v>-2.74</v>
@@ -3454,7 +3454,7 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B39">
         <v>0.65</v>
@@ -3510,7 +3510,7 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B40">
         <v>0.71</v>
@@ -3566,7 +3566,7 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B41">
         <v>1.84</v>
@@ -3622,7 +3622,7 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B42">
         <v>4.42</v>
@@ -3678,7 +3678,7 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B43">
         <v>-3.76</v>
@@ -3731,7 +3731,7 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B44">
         <v>2.0699999999999998</v>
@@ -3787,10 +3787,10 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C45">
         <v>-3.35</v>
@@ -3843,7 +3843,7 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B46">
         <v>3.02</v>
@@ -3899,7 +3899,7 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B47">
         <v>-0.37</v>
@@ -3955,7 +3955,7 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B48">
         <v>2.19</v>
@@ -4011,7 +4011,7 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B49">
         <v>1.29</v>
@@ -4067,7 +4067,7 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B50">
         <v>-4.79</v>
@@ -4123,7 +4123,7 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B51">
         <v>2.0099999999999998</v>
@@ -4179,7 +4179,7 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B52">
         <v>0.11</v>
@@ -4235,7 +4235,7 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B53">
         <v>1.73</v>
@@ -4291,7 +4291,7 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B54">
         <v>-3.3</v>
@@ -4347,7 +4347,7 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B55">
         <v>0.88</v>
@@ -4403,7 +4403,7 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B56">
         <v>-0.63</v>
@@ -4459,7 +4459,7 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B57">
         <v>3.18</v>
@@ -4515,7 +4515,7 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B58">
         <v>-3.09</v>
@@ -4571,7 +4571,7 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B59">
         <v>1.59</v>
@@ -4627,7 +4627,7 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B60">
         <v>2.74</v>
@@ -4683,7 +4683,7 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B61">
         <v>-10.16</v>
@@ -4739,7 +4739,7 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B62">
         <v>-6.78</v>
@@ -4795,7 +4795,7 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B63">
         <v>-7.82</v>
@@ -4851,7 +4851,7 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B64">
         <v>-1.25</v>
@@ -4907,7 +4907,7 @@
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B65">
         <v>3.76</v>
@@ -4963,7 +4963,7 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B66">
         <v>-2.86</v>
@@ -5019,7 +5019,7 @@
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B67">
         <v>-1.06</v>
@@ -5075,7 +5075,7 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B68">
         <v>-5.77</v>
@@ -5131,7 +5131,7 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B69">
         <v>2.46</v>
@@ -5187,7 +5187,7 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B70">
         <v>1.4</v>
@@ -5243,7 +5243,7 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B71">
         <v>-1.9</v>
@@ -5299,7 +5299,7 @@
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B72">
         <v>0.72</v>
@@ -5355,7 +5355,7 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B73">
         <v>0.89</v>
@@ -5411,7 +5411,7 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B74">
         <v>0.14000000000000001</v>
@@ -5467,7 +5467,7 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B75">
         <v>-3.83</v>
@@ -5523,7 +5523,7 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B76">
         <v>-2.0299999999999998</v>
@@ -5579,7 +5579,7 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B77">
         <v>0.06</v>
@@ -5635,7 +5635,7 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B78">
         <v>0.95</v>
@@ -5691,7 +5691,7 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B79">
         <v>-0.45</v>
@@ -5747,7 +5747,7 @@
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B80">
         <v>0.26</v>
@@ -5803,7 +5803,7 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B81">
         <v>0.01</v>
@@ -5859,7 +5859,7 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B82">
         <v>-1.33</v>
@@ -5915,7 +5915,7 @@
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B83">
         <v>2.15</v>
@@ -5971,7 +5971,7 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B84">
         <v>-8.3000000000000007</v>
@@ -6027,7 +6027,7 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B85">
         <v>-2.44</v>
@@ -6083,7 +6083,7 @@
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B86">
         <v>1.42</v>
@@ -6139,7 +6139,7 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B87">
         <v>-3.12</v>
@@ -6195,7 +6195,7 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B88">
         <v>0.34</v>
@@ -6251,7 +6251,7 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B89">
         <v>-1.08</v>
@@ -6307,7 +6307,7 @@
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B90">
         <v>-1.22</v>
@@ -6363,7 +6363,7 @@
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B91">
         <v>-4.74</v>
@@ -6419,7 +6419,7 @@
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B92">
         <v>-1.5</v>
@@ -6475,7 +6475,7 @@
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B93">
         <v>-3.72</v>
@@ -6531,7 +6531,7 @@
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B94">
         <v>-0.11</v>
@@ -6587,7 +6587,7 @@
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B95">
         <v>3.16</v>
@@ -6643,7 +6643,7 @@
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B96">
         <v>4.97</v>
@@ -6699,7 +6699,7 @@
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B97">
         <v>0.59</v>
@@ -6755,7 +6755,7 @@
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B98">
         <v>0.28999999999999998</v>
@@ -6811,7 +6811,7 @@
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B99">
         <v>1.19</v>
@@ -6867,7 +6867,7 @@
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B100">
         <v>-4.32</v>
@@ -6923,7 +6923,7 @@
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B101">
         <v>-4.2</v>
@@ -6979,7 +6979,7 @@
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B102">
         <v>-1.06</v>
@@ -7035,7 +7035,7 @@
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B103">
         <v>-2.9</v>
@@ -7091,7 +7091,7 @@
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B104">
         <v>4.71</v>
@@ -7147,7 +7147,7 @@
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B105">
         <v>1.46</v>
@@ -7203,7 +7203,7 @@
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B106">
         <v>-5.72</v>
@@ -7259,7 +7259,7 @@
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B107">
         <v>-0.01</v>
@@ -7315,7 +7315,7 @@
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B108">
         <v>-7.37</v>
@@ -7371,7 +7371,7 @@
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B109">
         <v>3.46</v>
@@ -7427,7 +7427,7 @@
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B110">
         <v>3.14</v>
@@ -7483,7 +7483,7 @@
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B111">
         <v>3.57</v>
@@ -7539,7 +7539,7 @@
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B112">
         <v>2.0299999999999998</v>
@@ -7595,7 +7595,7 @@
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B113">
         <v>1.3</v>
@@ -7651,7 +7651,7 @@
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B114">
         <v>2.15</v>
@@ -7707,7 +7707,7 @@
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B115">
         <v>3.26</v>
@@ -7763,7 +7763,7 @@
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B116">
         <v>0.41</v>
@@ -7819,7 +7819,7 @@
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B117">
         <v>-4.2</v>
@@ -7875,7 +7875,7 @@
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B118">
         <v>-2.66</v>
@@ -7931,7 +7931,7 @@
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B119">
         <v>2.66</v>
@@ -7987,7 +7987,7 @@
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B120">
         <v>2.78</v>
@@ -8043,7 +8043,7 @@
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B121">
         <v>1.18</v>
@@ -8099,7 +8099,7 @@
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B122">
         <v>0.77</v>
@@ -8155,7 +8155,7 @@
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B123">
         <v>1.78</v>
@@ -8211,7 +8211,7 @@
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B124">
         <v>-0.55000000000000004</v>
@@ -8267,7 +8267,7 @@
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B125">
         <v>-1.42</v>
@@ -8323,7 +8323,7 @@
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B126">
         <v>2.78</v>
@@ -8379,7 +8379,7 @@
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B127">
         <v>-3.92</v>
@@ -8435,7 +8435,7 @@
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B128">
         <v>5.18</v>
@@ -8491,7 +8491,7 @@
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B129">
         <v>3.65</v>
@@ -8547,7 +8547,7 @@
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B130">
         <v>-2.27</v>
@@ -8603,7 +8603,7 @@
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B131">
         <v>-5.14</v>
@@ -8659,7 +8659,7 @@
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B132">
         <v>1.1499999999999999</v>
@@ -8715,7 +8715,7 @@
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B133">
         <v>1.7</v>
@@ -8771,7 +8771,7 @@
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B134">
         <v>-0.14000000000000001</v>
@@ -8827,7 +8827,7 @@
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B135">
         <v>0.49</v>
@@ -8883,7 +8883,7 @@
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B136">
         <v>2.8</v>
@@ -8939,7 +8939,7 @@
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B137">
         <v>-0.4</v>
@@ -8995,7 +8995,7 @@
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B138">
         <v>-1.44</v>
@@ -9051,7 +9051,7 @@
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B139">
         <v>3.31</v>
@@ -9107,7 +9107,7 @@
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B140">
         <v>1.18</v>
@@ -9163,7 +9163,7 @@
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B141">
         <v>4.0999999999999996</v>
@@ -9219,7 +9219,7 @@
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B142">
         <v>0.74</v>
